--- a/test/fixtures/test.xlsx
+++ b/test/fixtures/test.xlsx
@@ -7,15 +7,13 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
     <sheet name="Sheet 2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet 3" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -43,13 +41,45 @@
   <si>
     <t>test</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>money chf</t>
+  </si>
+  <si>
+    <t>money usd</t>
+  </si>
+  <si>
+    <t>9999,99 USD</t>
+  </si>
+  <si>
+    <t>ticked</t>
+  </si>
+  <si>
+    <t>not ticked</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="6">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="60" formatCode="dd/mm/yyyy hh:mm"/>
+    <numFmt numFmtId="61" formatCode="hh:mm"/>
+    <numFmt numFmtId="62" formatCode="0.0%"/>
+    <numFmt numFmtId="63" formatCode="[$CHF] 0.00"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -208,16 +238,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -261,6 +288,33 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="62" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="63" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1342,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1354,647 +1408,633 @@
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="B3" s="7">
+        <f>$A3*B2</f>
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <f>$A3*C2</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="8">
+        <f>$A3*D2</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="8">
+        <f>$A3*E2</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="8">
+        <f>$A3*F2</f>
+        <v>12</v>
+      </c>
+      <c r="G3" s="8">
+        <f>$A3*G2</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="D3" s="6">
+      <c r="B4" s="7">
+        <f>$A4*B3</f>
+        <v>12</v>
+      </c>
+      <c r="C4" s="8">
+        <f>$A4*C3</f>
+        <v>18</v>
+      </c>
+      <c r="D4" s="8">
+        <f>$A4*D3</f>
+        <v>24</v>
+      </c>
+      <c r="E4" s="8">
+        <f>$A4*E3</f>
+        <v>30</v>
+      </c>
+      <c r="F4" s="8">
+        <f>$A4*F3</f>
+        <v>36</v>
+      </c>
+      <c r="G4" s="8">
+        <f>$A4*G3</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="E3" s="6">
+      <c r="B5" s="7">
+        <f>$A5*B4</f>
+        <v>48</v>
+      </c>
+      <c r="C5" s="8">
+        <f>$A5*C4</f>
+        <v>72</v>
+      </c>
+      <c r="D5" s="8">
+        <f>$A5*D4</f>
+        <v>96</v>
+      </c>
+      <c r="E5" s="8">
+        <f>$A5*E4</f>
+        <v>120</v>
+      </c>
+      <c r="F5" s="8">
+        <f>$A5*F4</f>
+        <v>144</v>
+      </c>
+      <c r="G5" s="8">
+        <f>$A5*G4</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="F3" s="6">
+      <c r="B6" s="7">
+        <f>$A6*B5</f>
+        <v>240</v>
+      </c>
+      <c r="C6" s="8">
+        <f>$A6*C5</f>
+        <v>360</v>
+      </c>
+      <c r="D6" s="8">
+        <f>$A6*D5</f>
+        <v>480</v>
+      </c>
+      <c r="E6" s="8">
+        <f>$A6*E5</f>
+        <v>600</v>
+      </c>
+      <c r="F6" s="8">
+        <f>$A6*F5</f>
+        <v>720</v>
+      </c>
+      <c r="G6" s="8">
+        <f>$A6*G5</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="G3" s="6">
+      <c r="B7" s="7">
+        <f>$A7*B6</f>
+        <v>1440</v>
+      </c>
+      <c r="C7" s="8">
+        <f>$A7*C6</f>
+        <v>2160</v>
+      </c>
+      <c r="D7" s="8">
+        <f>$A7*D6</f>
+        <v>2880</v>
+      </c>
+      <c r="E7" s="8">
+        <f>$A7*E6</f>
+        <v>3600</v>
+      </c>
+      <c r="F7" s="8">
+        <f>$A7*F6</f>
+        <v>4320</v>
+      </c>
+      <c r="G7" s="8">
+        <f>$A7*G6</f>
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <f>$A4*B3</f>
-        <v>4</v>
-      </c>
-      <c r="C4" s="9">
-        <f>$A4*C3</f>
-        <v>6</v>
-      </c>
-      <c r="D4" s="9">
-        <f>$A4*D3</f>
+      <c r="B8" s="7">
+        <f>$A8*B7</f>
+        <v>10080</v>
+      </c>
+      <c r="C8" s="8">
+        <f>$A8*C7</f>
+        <v>15120</v>
+      </c>
+      <c r="D8" s="8">
+        <f>$A8*D7</f>
+        <v>20160</v>
+      </c>
+      <c r="E8" s="8">
+        <f>$A8*E7</f>
+        <v>25200</v>
+      </c>
+      <c r="F8" s="8">
+        <f>$A8*F7</f>
+        <v>30240</v>
+      </c>
+      <c r="G8" s="8">
+        <f>$A8*G7</f>
+        <v>35280</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="E4" s="9">
-        <f>$A4*E3</f>
+      <c r="B9" s="7">
+        <f>$A9*B8</f>
+        <v>80640</v>
+      </c>
+      <c r="C9" s="8">
+        <f>$A9*C8</f>
+        <v>120960</v>
+      </c>
+      <c r="D9" s="8">
+        <f>$A9*D8</f>
+        <v>161280</v>
+      </c>
+      <c r="E9" s="8">
+        <f>$A9*E8</f>
+        <v>201600</v>
+      </c>
+      <c r="F9" s="8">
+        <f>$A9*F8</f>
+        <v>241920</v>
+      </c>
+      <c r="G9" s="8">
+        <f>$A9*G8</f>
+        <v>282240</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <f>$A10*B9</f>
+        <v>725760</v>
+      </c>
+      <c r="C10" s="8">
+        <f>$A10*C9</f>
+        <v>1088640</v>
+      </c>
+      <c r="D10" s="8">
+        <f>$A10*D9</f>
+        <v>1451520</v>
+      </c>
+      <c r="E10" s="8">
+        <f>$A10*E9</f>
+        <v>1814400</v>
+      </c>
+      <c r="F10" s="8">
+        <f>$A10*F9</f>
+        <v>2177280</v>
+      </c>
+      <c r="G10" s="8">
+        <f>$A10*G9</f>
+        <v>2540160</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="F4" s="9">
-        <f>$A4*F3</f>
+      <c r="B11" s="7">
+        <f>$A11*B10</f>
+        <v>7257600</v>
+      </c>
+      <c r="C11" s="8">
+        <f>$A11*C10</f>
+        <v>10886400</v>
+      </c>
+      <c r="D11" s="8">
+        <f>$A11*D10</f>
+        <v>14515200</v>
+      </c>
+      <c r="E11" s="8">
+        <f>$A11*E10</f>
+        <v>18144000</v>
+      </c>
+      <c r="F11" s="8">
+        <f>$A11*F10</f>
+        <v>21772800</v>
+      </c>
+      <c r="G11" s="8">
+        <f>$A11*G10</f>
+        <v>25401600</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <f>$A12*B11</f>
+        <v>79833600</v>
+      </c>
+      <c r="C12" s="8">
+        <f>$A12*C11</f>
+        <v>119750400</v>
+      </c>
+      <c r="D12" s="8">
+        <f>$A12*D11</f>
+        <v>159667200</v>
+      </c>
+      <c r="E12" s="8">
+        <f>$A12*E11</f>
+        <v>199584000</v>
+      </c>
+      <c r="F12" s="8">
+        <f>$A12*F11</f>
+        <v>239500800</v>
+      </c>
+      <c r="G12" s="8">
+        <f>$A12*G11</f>
+        <v>279417600</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="G4" s="9">
-        <f>$A4*G3</f>
+      <c r="B13" s="7">
+        <f>$A13*B12</f>
+        <v>958003200</v>
+      </c>
+      <c r="C13" s="8">
+        <f>$A13*C12</f>
+        <v>1437004800</v>
+      </c>
+      <c r="D13" s="8">
+        <f>$A13*D12</f>
+        <v>1916006400</v>
+      </c>
+      <c r="E13" s="8">
+        <f>$A13*E12</f>
+        <v>2395008000</v>
+      </c>
+      <c r="F13" s="8">
+        <f>$A13*F12</f>
+        <v>2874009600</v>
+      </c>
+      <c r="G13" s="8">
+        <f>$A13*G12</f>
+        <v>3353011200</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <f>$A14*B13</f>
+        <v>12454041600</v>
+      </c>
+      <c r="C14" s="8">
+        <f>$A14*C13</f>
+        <v>18681062400</v>
+      </c>
+      <c r="D14" s="8">
+        <f>$A14*D13</f>
+        <v>24908083200</v>
+      </c>
+      <c r="E14" s="8">
+        <f>$A14*E13</f>
+        <v>31135104000</v>
+      </c>
+      <c r="F14" s="8">
+        <f>$A14*F13</f>
+        <v>37362124800</v>
+      </c>
+      <c r="G14" s="8">
+        <f>$A14*G13</f>
+        <v>43589145600</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <f>$A5*B4</f>
-        <v>12</v>
-      </c>
-      <c r="C5" s="9">
-        <f>$A5*C4</f>
+      <c r="B15" s="7">
+        <f>$A15*B14</f>
+        <v>174356582400</v>
+      </c>
+      <c r="C15" s="8">
+        <f>$A15*C14</f>
+        <v>261534873600</v>
+      </c>
+      <c r="D15" s="8">
+        <f>$A15*D14</f>
+        <v>348713164800</v>
+      </c>
+      <c r="E15" s="8">
+        <f>$A15*E14</f>
+        <v>435891456000</v>
+      </c>
+      <c r="F15" s="8">
+        <f>$A15*F14</f>
+        <v>523069747200</v>
+      </c>
+      <c r="G15" s="8">
+        <f>$A15*G14</f>
+        <v>610248038400</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <f>$A16*B15</f>
+        <v>2615348736000</v>
+      </c>
+      <c r="C16" s="8">
+        <f>$A16*C15</f>
+        <v>3923023104000</v>
+      </c>
+      <c r="D16" s="8">
+        <f>$A16*D15</f>
+        <v>5230697472000</v>
+      </c>
+      <c r="E16" s="8">
+        <f>$A16*E15</f>
+        <v>6538371840000</v>
+      </c>
+      <c r="F16" s="8">
+        <f>$A16*F15</f>
+        <v>7846046208000</v>
+      </c>
+      <c r="G16" s="8">
+        <f>$A16*G15</f>
+        <v>9153720576000</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <f>$A17*B16</f>
+        <v>41845579776000</v>
+      </c>
+      <c r="C17" s="8">
+        <f>$A17*C16</f>
+        <v>62768369664000</v>
+      </c>
+      <c r="D17" s="8">
+        <f>$A17*D16</f>
+        <v>83691159552000</v>
+      </c>
+      <c r="E17" s="8">
+        <f>$A17*E16</f>
+        <v>104613949440000</v>
+      </c>
+      <c r="F17" s="8">
+        <f>$A17*F16</f>
+        <v>125536739328000</v>
+      </c>
+      <c r="G17" s="8">
+        <f>$A17*G16</f>
+        <v>146459529216000</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <f>$A18*B17</f>
+        <v>711374856192000</v>
+      </c>
+      <c r="C18" s="8">
+        <f>$A18*C17</f>
+        <v>1067062284288000</v>
+      </c>
+      <c r="D18" s="8">
+        <f>$A18*D17</f>
+        <v>1422749712384000</v>
+      </c>
+      <c r="E18" s="8">
+        <f>$A18*E17</f>
+        <v>1778437140480000</v>
+      </c>
+      <c r="F18" s="8">
+        <f>$A18*F17</f>
+        <v>2134124568576000</v>
+      </c>
+      <c r="G18" s="8">
+        <f>$A18*G17</f>
+        <v>2489811996672000</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="D5" s="9">
-        <f>$A5*D4</f>
-        <v>24</v>
-      </c>
-      <c r="E5" s="9">
-        <f>$A5*E4</f>
-        <v>30</v>
-      </c>
-      <c r="F5" s="9">
-        <f>$A5*F4</f>
-        <v>36</v>
-      </c>
-      <c r="G5" s="9">
-        <f>$A5*G4</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <f>$A6*B5</f>
-        <v>48</v>
-      </c>
-      <c r="C6" s="9">
-        <f>$A6*C5</f>
-        <v>72</v>
-      </c>
-      <c r="D6" s="9">
-        <f>$A6*D5</f>
-        <v>96</v>
-      </c>
-      <c r="E6" s="9">
-        <f>$A6*E5</f>
-        <v>120</v>
-      </c>
-      <c r="F6" s="9">
-        <f>$A6*F5</f>
-        <v>144</v>
-      </c>
-      <c r="G6" s="9">
-        <f>$A6*G5</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <f>$A7*B6</f>
-        <v>240</v>
-      </c>
-      <c r="C7" s="9">
-        <f>$A7*C6</f>
-        <v>360</v>
-      </c>
-      <c r="D7" s="9">
-        <f>$A7*D6</f>
-        <v>480</v>
-      </c>
-      <c r="E7" s="9">
-        <f>$A7*E6</f>
-        <v>600</v>
-      </c>
-      <c r="F7" s="9">
-        <f>$A7*F6</f>
-        <v>720</v>
-      </c>
-      <c r="G7" s="9">
-        <f>$A7*G6</f>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8">
-        <f>$A8*B7</f>
-        <v>1440</v>
-      </c>
-      <c r="C8" s="9">
-        <f>$A8*C7</f>
-        <v>2160</v>
-      </c>
-      <c r="D8" s="9">
-        <f>$A8*D7</f>
-        <v>2880</v>
-      </c>
-      <c r="E8" s="9">
-        <f>$A8*E7</f>
-        <v>3600</v>
-      </c>
-      <c r="F8" s="9">
-        <f>$A8*F7</f>
-        <v>4320</v>
-      </c>
-      <c r="G8" s="9">
-        <f>$A8*G7</f>
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8">
-        <f>$A9*B8</f>
-        <v>10080</v>
-      </c>
-      <c r="C9" s="9">
-        <f>$A9*C8</f>
-        <v>15120</v>
-      </c>
-      <c r="D9" s="9">
-        <f>$A9*D8</f>
-        <v>20160</v>
-      </c>
-      <c r="E9" s="9">
-        <f>$A9*E8</f>
-        <v>25200</v>
-      </c>
-      <c r="F9" s="9">
-        <f>$A9*F8</f>
-        <v>30240</v>
-      </c>
-      <c r="G9" s="9">
-        <f>$A9*G8</f>
-        <v>35280</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8">
-        <f>$A10*B9</f>
-        <v>80640</v>
-      </c>
-      <c r="C10" s="9">
-        <f>$A10*C9</f>
-        <v>120960</v>
-      </c>
-      <c r="D10" s="9">
-        <f>$A10*D9</f>
-        <v>161280</v>
-      </c>
-      <c r="E10" s="9">
-        <f>$A10*E9</f>
-        <v>201600</v>
-      </c>
-      <c r="F10" s="9">
-        <f>$A10*F9</f>
-        <v>241920</v>
-      </c>
-      <c r="G10" s="9">
-        <f>$A10*G9</f>
-        <v>282240</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8">
-        <f>$A11*B10</f>
-        <v>725760</v>
-      </c>
-      <c r="C11" s="9">
-        <f>$A11*C10</f>
-        <v>1088640</v>
-      </c>
-      <c r="D11" s="9">
-        <f>$A11*D10</f>
-        <v>1451520</v>
-      </c>
-      <c r="E11" s="9">
-        <f>$A11*E10</f>
-        <v>1814400</v>
-      </c>
-      <c r="F11" s="9">
-        <f>$A11*F10</f>
-        <v>2177280</v>
-      </c>
-      <c r="G11" s="9">
-        <f>$A11*G10</f>
-        <v>2540160</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8">
-        <f>$A12*B11</f>
-        <v>7257600</v>
-      </c>
-      <c r="C12" s="9">
-        <f>$A12*C11</f>
-        <v>10886400</v>
-      </c>
-      <c r="D12" s="9">
-        <f>$A12*D11</f>
-        <v>14515200</v>
-      </c>
-      <c r="E12" s="9">
-        <f>$A12*E11</f>
-        <v>18144000</v>
-      </c>
-      <c r="F12" s="9">
-        <f>$A12*F11</f>
-        <v>21772800</v>
-      </c>
-      <c r="G12" s="9">
-        <f>$A12*G11</f>
-        <v>25401600</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8">
-        <f>$A13*B12</f>
-        <v>79833600</v>
-      </c>
-      <c r="C13" s="9">
-        <f>$A13*C12</f>
-        <v>119750400</v>
-      </c>
-      <c r="D13" s="9">
-        <f>$A13*D12</f>
-        <v>159667200</v>
-      </c>
-      <c r="E13" s="9">
-        <f>$A13*E12</f>
-        <v>199584000</v>
-      </c>
-      <c r="F13" s="9">
-        <f>$A13*F12</f>
-        <v>239500800</v>
-      </c>
-      <c r="G13" s="9">
-        <f>$A13*G12</f>
-        <v>279417600</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8">
-        <f>$A14*B13</f>
-        <v>958003200</v>
-      </c>
-      <c r="C14" s="9">
-        <f>$A14*C13</f>
-        <v>1437004800</v>
-      </c>
-      <c r="D14" s="9">
-        <f>$A14*D13</f>
-        <v>1916006400</v>
-      </c>
-      <c r="E14" s="9">
-        <f>$A14*E13</f>
-        <v>2395008000</v>
-      </c>
-      <c r="F14" s="9">
-        <f>$A14*F13</f>
-        <v>2874009600</v>
-      </c>
-      <c r="G14" s="9">
-        <f>$A14*G13</f>
-        <v>3353011200</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8">
-        <f>$A15*B14</f>
-        <v>12454041600</v>
-      </c>
-      <c r="C15" s="9">
-        <f>$A15*C14</f>
-        <v>18681062400</v>
-      </c>
-      <c r="D15" s="9">
-        <f>$A15*D14</f>
-        <v>24908083200</v>
-      </c>
-      <c r="E15" s="9">
-        <f>$A15*E14</f>
-        <v>31135104000</v>
-      </c>
-      <c r="F15" s="9">
-        <f>$A15*F14</f>
-        <v>37362124800</v>
-      </c>
-      <c r="G15" s="9">
-        <f>$A15*G14</f>
-        <v>43589145600</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8">
-        <f>$A16*B15</f>
-        <v>174356582400</v>
-      </c>
-      <c r="C16" s="9">
-        <f>$A16*C15</f>
-        <v>261534873600</v>
-      </c>
-      <c r="D16" s="9">
-        <f>$A16*D15</f>
-        <v>348713164800</v>
-      </c>
-      <c r="E16" s="9">
-        <f>$A16*E15</f>
-        <v>435891456000</v>
-      </c>
-      <c r="F16" s="9">
-        <f>$A16*F15</f>
-        <v>523069747200</v>
-      </c>
-      <c r="G16" s="9">
-        <f>$A16*G15</f>
-        <v>610248038400</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8">
-        <f>$A17*B16</f>
-        <v>2615348736000</v>
-      </c>
-      <c r="C17" s="9">
-        <f>$A17*C16</f>
-        <v>3923023104000</v>
-      </c>
-      <c r="D17" s="9">
-        <f>$A17*D16</f>
-        <v>5230697472000</v>
-      </c>
-      <c r="E17" s="9">
-        <f>$A17*E16</f>
-        <v>6538371840000</v>
-      </c>
-      <c r="F17" s="9">
-        <f>$A17*F16</f>
-        <v>7846046208000</v>
-      </c>
-      <c r="G17" s="9">
-        <f>$A17*G16</f>
-        <v>9153720576000</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8">
-        <f>$A18*B17</f>
-        <v>41845579776000</v>
-      </c>
-      <c r="C18" s="9">
-        <f>$A18*C17</f>
-        <v>62768369664000</v>
-      </c>
-      <c r="D18" s="9">
-        <f>$A18*D17</f>
-        <v>83691159552000</v>
-      </c>
-      <c r="E18" s="9">
-        <f>$A18*E17</f>
-        <v>104613949440000</v>
-      </c>
-      <c r="F18" s="9">
-        <f>$A18*F17</f>
-        <v>125536739328000</v>
-      </c>
-      <c r="G18" s="9">
-        <f>$A18*G17</f>
-        <v>146459529216000</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <f>$A19*B18</f>
-        <v>711374856192000</v>
-      </c>
-      <c r="C19" s="9">
+        <v>1.2804747411456e+16</v>
+      </c>
+      <c r="C19" s="8">
         <f>$A19*C18</f>
-        <v>1067062284288000</v>
-      </c>
-      <c r="D19" s="9">
+        <v>1.9207121117184e+16</v>
+      </c>
+      <c r="D19" s="8">
         <f>$A19*D18</f>
-        <v>1422749712384000</v>
-      </c>
-      <c r="E19" s="9">
+        <v>2.5609494822912e+16</v>
+      </c>
+      <c r="E19" s="8">
         <f>$A19*E18</f>
-        <v>1778437140480000</v>
-      </c>
-      <c r="F19" s="9">
+        <v>3.201186852864e+16</v>
+      </c>
+      <c r="F19" s="8">
         <f>$A19*F18</f>
-        <v>2134124568576000</v>
-      </c>
-      <c r="G19" s="9">
+        <v>3.8414242234368e+16</v>
+      </c>
+      <c r="G19" s="8">
         <f>$A19*G18</f>
-        <v>2489811996672000</v>
+        <v>4.4816615940096e+16</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="7">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
         <f>$A20*B19</f>
-        <v>1.2804747411456e+16</v>
-      </c>
-      <c r="C20" s="9">
+        <v>2.43290200817664e+17</v>
+      </c>
+      <c r="C20" s="8">
         <f>$A20*C19</f>
-        <v>1.9207121117184e+16</v>
-      </c>
-      <c r="D20" s="9">
+        <v>3.64935301226496e+17</v>
+      </c>
+      <c r="D20" s="8">
         <f>$A20*D19</f>
-        <v>2.5609494822912e+16</v>
-      </c>
-      <c r="E20" s="9">
+        <v>4.86580401635328e+17</v>
+      </c>
+      <c r="E20" s="8">
         <f>$A20*E19</f>
-        <v>3.201186852864e+16</v>
-      </c>
-      <c r="F20" s="9">
+        <v>6.0822550204416e+17</v>
+      </c>
+      <c r="F20" s="8">
         <f>$A20*F19</f>
-        <v>3.8414242234368e+16</v>
-      </c>
-      <c r="G20" s="9">
+        <v>7.29870602452992e+17</v>
+      </c>
+      <c r="G20" s="8">
         <f>$A20*G19</f>
-        <v>4.4816615940096e+16</v>
+        <v>8.51515702861824e+17</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
         <f>$A21*B20</f>
-        <v>2.43290200817664e+17</v>
-      </c>
-      <c r="C21" s="9">
+        <v>4.86580401635328e+18</v>
+      </c>
+      <c r="C21" s="8">
         <f>$A21*C20</f>
-        <v>3.64935301226496e+17</v>
-      </c>
-      <c r="D21" s="9">
+        <v>7.29870602452992e+18</v>
+      </c>
+      <c r="D21" s="8">
         <f>$A21*D20</f>
-        <v>4.86580401635328e+17</v>
-      </c>
-      <c r="E21" s="9">
+        <v>9.73160803270656e+18</v>
+      </c>
+      <c r="E21" s="8">
         <f>$A21*E20</f>
-        <v>6.0822550204416e+17</v>
-      </c>
-      <c r="F21" s="9">
+        <v>1.21645100408832e+19</v>
+      </c>
+      <c r="F21" s="8">
         <f>$A21*F20</f>
-        <v>7.29870602452992e+17</v>
-      </c>
-      <c r="G21" s="9">
+        <v>1.45974120490598e+19</v>
+      </c>
+      <c r="G21" s="8">
         <f>$A21*G20</f>
-        <v>8.51515702861824e+17</v>
+        <v>1.70303140572365e+19</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
         <f>$A22*B21</f>
-        <v>4.86580401635328e+18</v>
-      </c>
-      <c r="C22" s="9">
+        <v>1.02181884343419e+20</v>
+      </c>
+      <c r="C22" s="8">
         <f>$A22*C21</f>
-        <v>7.29870602452992e+18</v>
-      </c>
-      <c r="D22" s="9">
+        <v>1.53272826515128e+20</v>
+      </c>
+      <c r="D22" s="8">
         <f>$A22*D21</f>
-        <v>9.73160803270656e+18</v>
-      </c>
-      <c r="E22" s="9">
+        <v>2.04363768686838e+20</v>
+      </c>
+      <c r="E22" s="8">
         <f>$A22*E21</f>
-        <v>1.21645100408832e+19</v>
-      </c>
-      <c r="F22" s="9">
+        <v>2.55454710858547e+20</v>
+      </c>
+      <c r="F22" s="8">
         <f>$A22*F21</f>
-        <v>1.45974120490598e+19</v>
-      </c>
-      <c r="G22" s="9">
+        <v>3.06545653030256e+20</v>
+      </c>
+      <c r="G22" s="8">
         <f>$A22*G21</f>
-        <v>1.70303140572365e+19</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8">
-        <f>$A23*B22</f>
-        <v>1.02181884343419e+20</v>
-      </c>
-      <c r="C23" s="9">
-        <f>$A23*C22</f>
-        <v>1.53272826515128e+20</v>
-      </c>
-      <c r="D23" s="9">
-        <f>$A23*D22</f>
-        <v>2.04363768686838e+20</v>
-      </c>
-      <c r="E23" s="9">
-        <f>$A23*E22</f>
-        <v>2.55454710858547e+20</v>
-      </c>
-      <c r="F23" s="9">
-        <f>$A23*F22</f>
-        <v>3.06545653030256e+20</v>
-      </c>
-      <c r="G23" s="9">
-        <f>$A23*G22</f>
         <v>3.57636595201967e+20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -2008,105 +2048,231 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="10" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="10" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="9" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="16.3516" style="17" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="B2" s="18">
+        <f>TODAY()</f>
+        <v>43783</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="B3" s="20">
+        <f t="shared" si="1" ref="B3:B4">NOW()</f>
+        <v>43783.760243055556</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="B4" s="21">
+        <f t="shared" si="1"/>
+        <v>43783.760243055556</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="19">
+        <v>12</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.125</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="19">
+        <v>13</v>
+      </c>
+      <c r="B6" s="23">
+        <v>100</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="24">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="B8" t="b" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="B9" t="b" s="7">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s" s="13">
-        <v>9</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/test/fixtures/test.xlsx
+++ b/test/fixtures/test.xlsx
@@ -79,9 +79,9 @@
     <numFmt numFmtId="60" formatCode="dd/mm/yyyy hh:mm"/>
     <numFmt numFmtId="61" formatCode="hh:mm"/>
     <numFmt numFmtId="62" formatCode="0.0%"/>
-    <numFmt numFmtId="63" formatCode="[$CHF] 0.00"/>
+    <numFmt numFmtId="63" formatCode="[$CHF]&quot; &quot;0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -93,13 +93,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -238,83 +249,80 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="63" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="62" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="63" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -338,6 +346,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -354,10 +363,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -534,11 +543,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -547,27 +559,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -824,10 +836,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1118,7 +1130,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1398,9 +1410,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -2050,9 +2060,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -2148,60 +2156,46 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="17" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="17" customWidth="1"/>
+    <col min="1" max="2" width="16.3516" style="17" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="11">
         <v>9</v>
       </c>
       <c r="B2" s="18">
-        <f>TODAY()</f>
-        <v>43783</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+        <f>DATE(2019,11,15)</f>
+        <v>43784</v>
+      </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="19">
         <v>10</v>
       </c>
       <c r="B3" s="20">
-        <f t="shared" si="1" ref="B3:B4">NOW()</f>
-        <v>43783.760243055556</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+        <f>NOW()</f>
+        <v>43787.924259259256</v>
+      </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="19">
         <v>11</v>
       </c>
       <c r="B4" s="21">
-        <f t="shared" si="1"/>
-        <v>43783.760243055556</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+        <f>TIME(18,45,12)</f>
+        <v>1462.781388888889</v>
+      </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="19">
@@ -2210,9 +2204,6 @@
       <c r="B5" s="22">
         <v>0.125</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="19">
@@ -2221,9 +2212,6 @@
       <c r="B6" s="23">
         <v>100</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="19">
@@ -2232,9 +2220,6 @@
       <c r="B7" t="s" s="24">
         <v>15</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="19">
@@ -2243,9 +2228,6 @@
       <c r="B8" t="b" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="19">
@@ -2254,23 +2236,6 @@
       <c r="B9" t="b" s="7">
         <v>0</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/test/fixtures/test.xlsx
+++ b/test/fixtures/test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>A</t>
   </si>
@@ -68,6 +68,20 @@
   <si>
     <t>not ticked</t>
   </si>
+  <si>
+    <t>hyperlink</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://elixir-lang.org/</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -81,7 +95,7 @@
     <numFmt numFmtId="62" formatCode="0.0%"/>
     <numFmt numFmtId="63" formatCode="[$CHF]&quot; &quot;0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -101,6 +115,12 @@
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="14"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -347,6 +367,7 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2156,13 +2177,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="16.3516" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.7734" style="17" customWidth="1"/>
     <col min="3" max="256" width="16.3516" style="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2185,7 +2207,7 @@
       </c>
       <c r="B3" s="20">
         <f>NOW()</f>
-        <v>43787.924259259256</v>
+        <v>43793.462650462963</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
@@ -2237,7 +2259,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="24">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" location="" tooltip="" display="https://elixir-lang.org/"/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/test/fixtures/test.xlsx
+++ b/test/fixtures/test.xlsx
@@ -93,7 +93,7 @@
     <numFmt numFmtId="60" formatCode="dd/mm/yyyy hh:mm"/>
     <numFmt numFmtId="61" formatCode="hh:mm"/>
     <numFmt numFmtId="62" formatCode="0.0%"/>
-    <numFmt numFmtId="63" formatCode="[$CHF]&quot; &quot;0.00"/>
+    <numFmt numFmtId="63" formatCode="[$CHF]0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1436,7 +1436,7 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -2086,7 +2086,7 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="5" width="16.3516" style="9" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -2184,8 +2184,8 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.3516" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.7734" style="17" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.8516" style="17" customWidth="1"/>
+    <col min="3" max="16384" width="16.3516" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B3" s="20">
         <f>NOW()</f>
-        <v>43793.462650462963</v>
+        <v>43990.893761574072</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
